--- a/docs/demo/file/del2.xlsx
+++ b/docs/demo/file/del2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,22 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +384,7 @@
   <dimension ref="B3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -378,9 +394,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
